--- a/fastapi-backend/cleaned_data/test (1).xlsx
+++ b/fastapi-backend/cleaned_data/test (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luci\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C828A-D07A-4918-BCE6-84FB32E30CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3977FB33-E978-4541-8DCF-DB3E2B678C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1253,9 +1253,9 @@
   </sheetPr>
   <dimension ref="A1:AW104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
